--- a/Mystore_testcase.xlsx
+++ b/Mystore_testcase.xlsx
@@ -81,11 +81,6 @@
     <t xml:space="preserve">Check and verify user is able to Login </t>
   </si>
   <si>
-    <t>1. Browser should be installed                                    
-2. Stable Internet Connection
-3. Valid Credentials.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open the URL.
 2. Enter the valid emailid.
 3. Enter the valid password
@@ -140,6 +135,9 @@
   </si>
   <si>
     <t>Check product availability</t>
+  </si>
+  <si>
+    <t>1. Logged in User</t>
   </si>
 </sst>
 </file>
@@ -244,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,6 +269,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -279,9 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,7 +582,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -620,13 +621,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -664,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21.5" customHeight="1">
+    <row r="7" spans="1:9" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -674,45 +675,45 @@
       <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="8"/>
@@ -723,55 +724,55 @@
     </row>
     <row r="12" spans="1:9" ht="14.5" customHeight="1">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="18.5" customHeight="1">
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1">
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" s="9"/>
@@ -822,17 +823,15 @@
       <c r="H24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="F12:F16"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="H12:H16"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
